--- a/2017SP_Burndown-Chart-Pacman.xlsx
+++ b/2017SP_Burndown-Chart-Pacman.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcowen/Dropbox/LMSC-281/Week 13/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcowen/GitHub-Berklee/LMSC281_PacMan-Clone-Update/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockStructure="1"/>
@@ -1329,8 +1329,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="839177632"/>
-        <c:axId val="839166816"/>
+        <c:axId val="684426208"/>
+        <c:axId val="684417520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1378,13 +1378,13 @@
                   <c:v>32.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.35</c:v>
+                  <c:v>30.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.52</c:v>
+                  <c:v>29.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.69</c:v>
+                  <c:v>27.44</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0</c:v>
@@ -1689,11 +1689,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="839177632"/>
-        <c:axId val="839166816"/>
+        <c:axId val="684426208"/>
+        <c:axId val="684417520"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="839166816"/>
+        <c:axId val="684417520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1748,12 +1748,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="839177632"/>
+        <c:crossAx val="684426208"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="839177632"/>
+        <c:axId val="684426208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="839166816"/>
+        <c:crossAx val="684417520"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1828,7 +1828,7 @@
         <xdr:cNvPr id="2" name="shape">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA6FF4D-82E2-477E-8E4C-685A2FFBD528}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CA6FF4D-82E2-477E-8E4C-685A2FFBD528}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2148,7 +2148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -6743,7 +6743,7 @@
   <dimension ref="A1:DB138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="59.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7079,15 +7079,15 @@
       <c r="D2"/>
       <c r="G2" s="20" t="str">
         <f ca="1">IF(G$37=$B$35,"Today",IF(G$37&lt;$B$35,"P","F"))</f>
-        <v>Today</v>
+        <v>P</v>
       </c>
       <c r="H2" s="20" t="str">
         <f t="shared" ref="H2:AM2" ca="1" si="0">IF(AND($B$35&gt;G$37,$B$35&lt;=H$37),"Today",IF(H$37&lt;$B$35,"P","F"))</f>
-        <v>F</v>
+        <v>P</v>
       </c>
       <c r="I2" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>Today</v>
       </c>
       <c r="J2" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7905,11 +7905,11 @@
       </c>
       <c r="D4" s="27">
         <f>SUM($D$38:$D$138)</f>
-        <v>33.35</v>
+        <v>30.6</v>
       </c>
       <c r="E4" s="27">
         <f>(C4-D4)/B1</f>
-        <v>-1.1700000000000017</v>
+        <v>1.5799999999999983</v>
       </c>
       <c r="G4" s="20">
         <f t="shared" ref="G4:AL4" si="3">IF(G36&lt;&gt;"F",SUM(G$38:G$138),"")</f>
@@ -8320,7 +8320,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="28">
         <f ca="1">C4-(E4*(Setup!$B$6-1))</f>
-        <v>35.690000000000005</v>
+        <v>27.440000000000005</v>
       </c>
       <c r="E5" s="27"/>
       <c r="G5" s="29">
@@ -8329,15 +8329,15 @@
       </c>
       <c r="H5" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>33.35</v>
+        <v>30.6</v>
       </c>
       <c r="I5" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>34.520000000000003</v>
+        <v>29.020000000000003</v>
       </c>
       <c r="J5" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>35.690000000000005</v>
+        <v>27.440000000000005</v>
       </c>
       <c r="K5" s="29" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -9283,11 +9283,11 @@
       </c>
       <c r="D9" s="31">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="27">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" si="12"/>
@@ -11393,11 +11393,11 @@
       </c>
       <c r="D14" s="31">
         <f t="shared" si="10"/>
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="G14" s="20">
         <f t="shared" si="12"/>
@@ -17840,11 +17840,11 @@
       </c>
       <c r="D31" s="31">
         <f>SUMIF($B$38:$B$138,$B31,$D$38:$D$138)</f>
-        <v>33.35</v>
+        <v>30.6</v>
       </c>
       <c r="E31" s="27">
         <f>(C31-D31)/B$1</f>
-        <v>-1.1700000000000017</v>
+        <v>1.5799999999999983</v>
       </c>
       <c r="G31" s="20">
         <f t="shared" ref="G31:P33" si="32">SUMIF($B$38:$B$138,$B31,G$38:G$138)</f>
@@ -19096,19 +19096,19 @@
       </c>
       <c r="B35" s="25">
         <f ca="1">TODAY()</f>
-        <v>42853</v>
+        <v>42855</v>
       </c>
       <c r="G35" s="20" t="str">
         <f ca="1">IF(G$37=$B$35,"Today",IF(G$37&lt;$B$35,"P","F"))</f>
-        <v>Today</v>
+        <v>P</v>
       </c>
       <c r="H35" s="20" t="str">
         <f t="shared" ref="H35:AM35" ca="1" si="42">IF(AND($B$35&gt;G$37,$B$35&lt;=H$37),"Today",IF(H$37&lt;$B$35,"P","F"))</f>
-        <v>F</v>
+        <v>P</v>
       </c>
       <c r="I35" s="20" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>F</v>
+        <v>Today</v>
       </c>
       <c r="J35" s="20" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -21601,8 +21601,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="31">
-        <f t="shared" ref="D41:D69" si="55">DB41</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="39" t="s">
@@ -21613,399 +21612,399 @@
         <v>1</v>
       </c>
       <c r="H41" s="20">
-        <f t="shared" ref="H41:AM41" si="56">G41</f>
+        <f t="shared" ref="H41:AM41" si="55">G41</f>
         <v>1</v>
       </c>
       <c r="I41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="J41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="L41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="M41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="N41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="O41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="P41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="R41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="S41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="T41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="U41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="V41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="W41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="X41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="Y41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="Z41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AA41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AB41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AC41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AD41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AE41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AF41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AG41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AH41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AI41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AK41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AL41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AM41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AN41" s="20">
+        <f t="shared" ref="AN41:BS41" si="56">AM41</f>
+        <v>1</v>
+      </c>
+      <c r="AO41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="J41" s="20">
+      <c r="AP41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="K41" s="20">
+      <c r="AQ41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="L41" s="20">
+      <c r="AR41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="M41" s="20">
+      <c r="AS41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="N41" s="20">
+      <c r="AT41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="O41" s="20">
+      <c r="AU41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="P41" s="20">
+      <c r="AV41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="Q41" s="20">
+      <c r="AW41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="R41" s="20">
+      <c r="AX41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="S41" s="20">
+      <c r="AY41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="T41" s="20">
+      <c r="AZ41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="U41" s="20">
+      <c r="BA41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="V41" s="20">
+      <c r="BB41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="W41" s="20">
+      <c r="BC41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="X41" s="20">
+      <c r="BD41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="Y41" s="20">
+      <c r="BE41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="Z41" s="20">
+      <c r="BF41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AA41" s="20">
+      <c r="BG41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AB41" s="20">
+      <c r="BH41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AC41" s="20">
+      <c r="BI41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AD41" s="20">
+      <c r="BJ41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AE41" s="20">
+      <c r="BK41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AF41" s="20">
+      <c r="BL41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AG41" s="20">
+      <c r="BM41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AH41" s="20">
+      <c r="BN41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AI41" s="20">
+      <c r="BO41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AJ41" s="20">
+      <c r="BP41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AK41" s="20">
+      <c r="BQ41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AL41" s="20">
+      <c r="BR41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AM41" s="20">
+      <c r="BS41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AN41" s="20">
-        <f t="shared" ref="AN41:BS41" si="57">AM41</f>
-        <v>1</v>
-      </c>
-      <c r="AO41" s="20">
+      <c r="BT41" s="20">
+        <f t="shared" ref="BT41:DB41" si="57">BS41</f>
+        <v>1</v>
+      </c>
+      <c r="BU41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AP41" s="20">
+      <c r="BV41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AQ41" s="20">
+      <c r="BW41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AR41" s="20">
+      <c r="BX41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AS41" s="20">
+      <c r="BY41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AT41" s="20">
+      <c r="BZ41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AU41" s="20">
+      <c r="CA41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AV41" s="20">
+      <c r="CB41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AW41" s="20">
+      <c r="CC41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AX41" s="20">
+      <c r="CD41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AY41" s="20">
+      <c r="CE41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AZ41" s="20">
+      <c r="CF41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BA41" s="20">
+      <c r="CG41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BB41" s="20">
+      <c r="CH41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BC41" s="20">
+      <c r="CI41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BD41" s="20">
+      <c r="CJ41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BE41" s="20">
+      <c r="CK41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BF41" s="20">
+      <c r="CL41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BG41" s="20">
+      <c r="CM41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BH41" s="20">
+      <c r="CN41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BI41" s="20">
+      <c r="CO41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BJ41" s="20">
+      <c r="CP41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BK41" s="20">
+      <c r="CQ41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BL41" s="20">
+      <c r="CR41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BM41" s="20">
+      <c r="CS41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BN41" s="20">
+      <c r="CT41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BO41" s="20">
+      <c r="CU41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BP41" s="20">
+      <c r="CV41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BQ41" s="20">
+      <c r="CW41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BR41" s="20">
+      <c r="CX41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BS41" s="20">
+      <c r="CY41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BT41" s="20">
-        <f t="shared" ref="BT41:DB41" si="58">BS41</f>
-        <v>1</v>
-      </c>
-      <c r="BU41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="BV41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="BW41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="BX41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="BY41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="BZ41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CA41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CB41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CC41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CD41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CE41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CF41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CG41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CH41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CI41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CJ41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CK41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CL41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CM41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CN41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CO41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CP41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CQ41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CR41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CS41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CT41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CU41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CV41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CW41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CX41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CY41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
       <c r="CZ41" s="20">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="DA41" s="20">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="DB41" s="20">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
     </row>
@@ -22022,7 +22021,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="D41:D69" si="58">DB42</f>
         <v>2</v>
       </c>
       <c r="E42" s="38"/>
@@ -22443,7 +22442,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="E43" s="38"/>
@@ -22864,7 +22863,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E44" s="38"/>
@@ -23285,7 +23284,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="E45" s="38"/>
@@ -23706,7 +23705,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="E46" s="38"/>
@@ -24127,7 +24126,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="E47" s="38"/>
@@ -24548,7 +24547,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E48" s="38"/>
@@ -24969,7 +24968,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E49" s="38"/>
@@ -25390,7 +25389,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E50" s="38"/>
@@ -25811,7 +25810,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E51" s="38"/>
@@ -26232,7 +26231,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="E52" s="38"/>
@@ -26653,7 +26652,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="E53" s="38"/>
@@ -27074,7 +27073,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="E54" s="38"/>
@@ -27495,8 +27494,7 @@
         <v>0.1</v>
       </c>
       <c r="D55" s="31">
-        <f t="shared" si="55"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="38"/>
       <c r="F55" s="39" t="s">
@@ -27916,8 +27914,7 @@
         <v>0.5</v>
       </c>
       <c r="D56" s="31">
-        <f t="shared" si="55"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E56" s="38"/>
       <c r="F56" s="39" t="s">
@@ -28337,8 +28334,7 @@
         <v>0.15</v>
       </c>
       <c r="D57" s="31">
-        <f t="shared" si="55"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="39" t="s">
@@ -28758,8 +28754,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="31">
-        <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="39" t="s">
@@ -29179,7 +29174,7 @@
         <v>0.1</v>
       </c>
       <c r="D59" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0.1</v>
       </c>
       <c r="E59" s="38"/>
@@ -29600,7 +29595,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E60" s="38"/>
@@ -30021,7 +30016,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E61" s="38"/>
@@ -30442,7 +30437,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="E62" s="38"/>
@@ -30863,7 +30858,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E63" s="38"/>
@@ -31284,7 +31279,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E64" s="38"/>
@@ -31705,7 +31700,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E65" s="38"/>
@@ -32124,7 +32119,7 @@
         <v/>
       </c>
       <c r="D66" s="31" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="E66" s="38"/>
@@ -32541,7 +32536,7 @@
         <v/>
       </c>
       <c r="D67" s="31" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="E67" s="38"/>
@@ -32958,7 +32953,7 @@
         <v/>
       </c>
       <c r="D68" s="31" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="E68" s="38"/>
@@ -33375,7 +33370,7 @@
         <v/>
       </c>
       <c r="D69" s="31" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="E69" s="38"/>

--- a/2017SP_Burndown-Chart-Pacman.xlsx
+++ b/2017SP_Burndown-Chart-Pacman.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcowen/Dropbox/LMSC-281/Week 13/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcowen/GitHub-Berklee/LMSC281_PacMan-Clone-Update/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockStructure="1"/>
@@ -1329,8 +1329,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="839177632"/>
-        <c:axId val="839166816"/>
+        <c:axId val="1961920880"/>
+        <c:axId val="1961910032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1689,11 +1689,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="839177632"/>
-        <c:axId val="839166816"/>
+        <c:axId val="1961920880"/>
+        <c:axId val="1961910032"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="839166816"/>
+        <c:axId val="1961910032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1748,12 +1748,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="839177632"/>
+        <c:crossAx val="1961920880"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="839177632"/>
+        <c:axId val="1961920880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="839166816"/>
+        <c:crossAx val="1961910032"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1828,7 +1828,7 @@
         <xdr:cNvPr id="2" name="shape">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA6FF4D-82E2-477E-8E4C-685A2FFBD528}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CA6FF4D-82E2-477E-8E4C-685A2FFBD528}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6742,8 +6742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="59.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7079,15 +7079,15 @@
       <c r="D2"/>
       <c r="G2" s="20" t="str">
         <f ca="1">IF(G$37=$B$35,"Today",IF(G$37&lt;$B$35,"P","F"))</f>
-        <v>Today</v>
+        <v>P</v>
       </c>
       <c r="H2" s="20" t="str">
         <f t="shared" ref="H2:AM2" ca="1" si="0">IF(AND($B$35&gt;G$37,$B$35&lt;=H$37),"Today",IF(H$37&lt;$B$35,"P","F"))</f>
-        <v>F</v>
+        <v>P</v>
       </c>
       <c r="I2" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>Today</v>
       </c>
       <c r="J2" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -19096,19 +19096,19 @@
       </c>
       <c r="B35" s="25">
         <f ca="1">TODAY()</f>
-        <v>42853</v>
+        <v>42855</v>
       </c>
       <c r="G35" s="20" t="str">
         <f ca="1">IF(G$37=$B$35,"Today",IF(G$37&lt;$B$35,"P","F"))</f>
-        <v>Today</v>
+        <v>P</v>
       </c>
       <c r="H35" s="20" t="str">
         <f t="shared" ref="H35:AM35" ca="1" si="42">IF(AND($B$35&gt;G$37,$B$35&lt;=H$37),"Today",IF(H$37&lt;$B$35,"P","F"))</f>
-        <v>F</v>
+        <v>P</v>
       </c>
       <c r="I35" s="20" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>F</v>
+        <v>Today</v>
       </c>
       <c r="J35" s="20" t="str">
         <f t="shared" ca="1" si="42"/>

--- a/2017SP_Burndown-Chart-Pacman.xlsx
+++ b/2017SP_Burndown-Chart-Pacman.xlsx
@@ -1329,8 +1329,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1961920880"/>
-        <c:axId val="1961910032"/>
+        <c:axId val="684426208"/>
+        <c:axId val="684417520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1378,13 +1378,13 @@
                   <c:v>32.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.35</c:v>
+                  <c:v>30.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.52</c:v>
+                  <c:v>29.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.69</c:v>
+                  <c:v>27.44</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0</c:v>
@@ -1689,11 +1689,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1961920880"/>
-        <c:axId val="1961910032"/>
+        <c:axId val="684426208"/>
+        <c:axId val="684417520"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="1961910032"/>
+        <c:axId val="684417520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1748,12 +1748,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1961920880"/>
+        <c:crossAx val="684426208"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="1961920880"/>
+        <c:axId val="684426208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1961910032"/>
+        <c:crossAx val="684417520"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2148,7 +2148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -6742,8 +6742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:A65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="59.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7905,11 +7905,11 @@
       </c>
       <c r="D4" s="27">
         <f>SUM($D$38:$D$138)</f>
-        <v>33.35</v>
+        <v>30.6</v>
       </c>
       <c r="E4" s="27">
         <f>(C4-D4)/B1</f>
-        <v>-1.1700000000000017</v>
+        <v>1.5799999999999983</v>
       </c>
       <c r="G4" s="20">
         <f t="shared" ref="G4:AL4" si="3">IF(G36&lt;&gt;"F",SUM(G$38:G$138),"")</f>
@@ -8320,7 +8320,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="28">
         <f ca="1">C4-(E4*(Setup!$B$6-1))</f>
-        <v>35.690000000000005</v>
+        <v>27.440000000000005</v>
       </c>
       <c r="E5" s="27"/>
       <c r="G5" s="29">
@@ -8329,15 +8329,15 @@
       </c>
       <c r="H5" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>33.35</v>
+        <v>30.6</v>
       </c>
       <c r="I5" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>34.520000000000003</v>
+        <v>29.020000000000003</v>
       </c>
       <c r="J5" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>35.690000000000005</v>
+        <v>27.440000000000005</v>
       </c>
       <c r="K5" s="29" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -9283,11 +9283,11 @@
       </c>
       <c r="D9" s="31">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="27">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" si="12"/>
@@ -11393,11 +11393,11 @@
       </c>
       <c r="D14" s="31">
         <f t="shared" si="10"/>
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="G14" s="20">
         <f t="shared" si="12"/>
@@ -17840,11 +17840,11 @@
       </c>
       <c r="D31" s="31">
         <f>SUMIF($B$38:$B$138,$B31,$D$38:$D$138)</f>
-        <v>33.35</v>
+        <v>30.6</v>
       </c>
       <c r="E31" s="27">
         <f>(C31-D31)/B$1</f>
-        <v>-1.1700000000000017</v>
+        <v>1.5799999999999983</v>
       </c>
       <c r="G31" s="20">
         <f t="shared" ref="G31:P33" si="32">SUMIF($B$38:$B$138,$B31,G$38:G$138)</f>
@@ -21601,8 +21601,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="31">
-        <f t="shared" ref="D41:D69" si="55">DB41</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="39" t="s">
@@ -21613,399 +21612,399 @@
         <v>1</v>
       </c>
       <c r="H41" s="20">
-        <f t="shared" ref="H41:AM41" si="56">G41</f>
+        <f t="shared" ref="H41:AM41" si="55">G41</f>
         <v>1</v>
       </c>
       <c r="I41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="J41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="L41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="M41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="N41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="O41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="P41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="R41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="S41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="T41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="U41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="V41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="W41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="X41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="Y41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="Z41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AA41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AB41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AC41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AD41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AE41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AF41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AG41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AH41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AI41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AK41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AL41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AM41" s="20">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AN41" s="20">
+        <f t="shared" ref="AN41:BS41" si="56">AM41</f>
+        <v>1</v>
+      </c>
+      <c r="AO41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="J41" s="20">
+      <c r="AP41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="K41" s="20">
+      <c r="AQ41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="L41" s="20">
+      <c r="AR41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="M41" s="20">
+      <c r="AS41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="N41" s="20">
+      <c r="AT41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="O41" s="20">
+      <c r="AU41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="P41" s="20">
+      <c r="AV41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="Q41" s="20">
+      <c r="AW41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="R41" s="20">
+      <c r="AX41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="S41" s="20">
+      <c r="AY41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="T41" s="20">
+      <c r="AZ41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="U41" s="20">
+      <c r="BA41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="V41" s="20">
+      <c r="BB41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="W41" s="20">
+      <c r="BC41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="X41" s="20">
+      <c r="BD41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="Y41" s="20">
+      <c r="BE41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="Z41" s="20">
+      <c r="BF41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AA41" s="20">
+      <c r="BG41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AB41" s="20">
+      <c r="BH41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AC41" s="20">
+      <c r="BI41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AD41" s="20">
+      <c r="BJ41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AE41" s="20">
+      <c r="BK41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AF41" s="20">
+      <c r="BL41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AG41" s="20">
+      <c r="BM41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AH41" s="20">
+      <c r="BN41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AI41" s="20">
+      <c r="BO41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AJ41" s="20">
+      <c r="BP41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AK41" s="20">
+      <c r="BQ41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AL41" s="20">
+      <c r="BR41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AM41" s="20">
+      <c r="BS41" s="20">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
-      <c r="AN41" s="20">
-        <f t="shared" ref="AN41:BS41" si="57">AM41</f>
-        <v>1</v>
-      </c>
-      <c r="AO41" s="20">
+      <c r="BT41" s="20">
+        <f t="shared" ref="BT41:DB41" si="57">BS41</f>
+        <v>1</v>
+      </c>
+      <c r="BU41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AP41" s="20">
+      <c r="BV41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AQ41" s="20">
+      <c r="BW41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AR41" s="20">
+      <c r="BX41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AS41" s="20">
+      <c r="BY41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AT41" s="20">
+      <c r="BZ41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AU41" s="20">
+      <c r="CA41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AV41" s="20">
+      <c r="CB41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AW41" s="20">
+      <c r="CC41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AX41" s="20">
+      <c r="CD41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AY41" s="20">
+      <c r="CE41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="AZ41" s="20">
+      <c r="CF41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BA41" s="20">
+      <c r="CG41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BB41" s="20">
+      <c r="CH41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BC41" s="20">
+      <c r="CI41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BD41" s="20">
+      <c r="CJ41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BE41" s="20">
+      <c r="CK41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BF41" s="20">
+      <c r="CL41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BG41" s="20">
+      <c r="CM41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BH41" s="20">
+      <c r="CN41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BI41" s="20">
+      <c r="CO41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BJ41" s="20">
+      <c r="CP41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BK41" s="20">
+      <c r="CQ41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BL41" s="20">
+      <c r="CR41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BM41" s="20">
+      <c r="CS41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BN41" s="20">
+      <c r="CT41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BO41" s="20">
+      <c r="CU41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BP41" s="20">
+      <c r="CV41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BQ41" s="20">
+      <c r="CW41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BR41" s="20">
+      <c r="CX41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BS41" s="20">
+      <c r="CY41" s="20">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="BT41" s="20">
-        <f t="shared" ref="BT41:DB41" si="58">BS41</f>
-        <v>1</v>
-      </c>
-      <c r="BU41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="BV41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="BW41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="BX41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="BY41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="BZ41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CA41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CB41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CC41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CD41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CE41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CF41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CG41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CH41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CI41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CJ41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CK41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CL41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CM41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CN41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CO41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CP41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CQ41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CR41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CS41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CT41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CU41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CV41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CW41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CX41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="CY41" s="20">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
       <c r="CZ41" s="20">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="DA41" s="20">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="DB41" s="20">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
     </row>
@@ -22022,7 +22021,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="D41:D69" si="58">DB42</f>
         <v>2</v>
       </c>
       <c r="E42" s="38"/>
@@ -22443,7 +22442,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="E43" s="38"/>
@@ -22864,7 +22863,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E44" s="38"/>
@@ -23285,7 +23284,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="E45" s="38"/>
@@ -23706,7 +23705,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="E46" s="38"/>
@@ -24127,7 +24126,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="E47" s="38"/>
@@ -24548,7 +24547,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E48" s="38"/>
@@ -24969,7 +24968,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E49" s="38"/>
@@ -25390,7 +25389,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E50" s="38"/>
@@ -25811,7 +25810,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E51" s="38"/>
@@ -26232,7 +26231,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="E52" s="38"/>
@@ -26653,7 +26652,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="E53" s="38"/>
@@ -27074,7 +27073,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="E54" s="38"/>
@@ -27495,8 +27494,7 @@
         <v>0.1</v>
       </c>
       <c r="D55" s="31">
-        <f t="shared" si="55"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="38"/>
       <c r="F55" s="39" t="s">
@@ -27916,8 +27914,7 @@
         <v>0.5</v>
       </c>
       <c r="D56" s="31">
-        <f t="shared" si="55"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E56" s="38"/>
       <c r="F56" s="39" t="s">
@@ -28337,8 +28334,7 @@
         <v>0.15</v>
       </c>
       <c r="D57" s="31">
-        <f t="shared" si="55"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="39" t="s">
@@ -28758,8 +28754,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="31">
-        <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="39" t="s">
@@ -29179,7 +29174,7 @@
         <v>0.1</v>
       </c>
       <c r="D59" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0.1</v>
       </c>
       <c r="E59" s="38"/>
@@ -29600,7 +29595,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E60" s="38"/>
@@ -30021,7 +30016,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E61" s="38"/>
@@ -30442,7 +30437,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="E62" s="38"/>
@@ -30863,7 +30858,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E63" s="38"/>
@@ -31284,7 +31279,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E64" s="38"/>
@@ -31705,7 +31700,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="31">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="E65" s="38"/>
@@ -32124,7 +32119,7 @@
         <v/>
       </c>
       <c r="D66" s="31" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="E66" s="38"/>
@@ -32541,7 +32536,7 @@
         <v/>
       </c>
       <c r="D67" s="31" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="E67" s="38"/>
@@ -32958,7 +32953,7 @@
         <v/>
       </c>
       <c r="D68" s="31" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="E68" s="38"/>
@@ -33375,7 +33370,7 @@
         <v/>
       </c>
       <c r="D69" s="31" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="E69" s="38"/>

--- a/2017SP_Burndown-Chart-Pacman.xlsx
+++ b/2017SP_Burndown-Chart-Pacman.xlsx
@@ -1329,8 +1329,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="684426208"/>
-        <c:axId val="684417520"/>
+        <c:axId val="1487813872"/>
+        <c:axId val="1488675200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1378,13 +1378,13 @@
                   <c:v>32.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.6</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.02</c:v>
+                  <c:v>-8.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.44</c:v>
+                  <c:v>-28.36</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0</c:v>
@@ -1689,11 +1689,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="684426208"/>
-        <c:axId val="684417520"/>
+        <c:axId val="1487813872"/>
+        <c:axId val="1488675200"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="684417520"/>
+        <c:axId val="1488675200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1748,12 +1748,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684426208"/>
+        <c:crossAx val="1487813872"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="684426208"/>
+        <c:axId val="1487813872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684417520"/>
+        <c:crossAx val="1488675200"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1828,7 +1828,7 @@
         <xdr:cNvPr id="2" name="shape">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CA6FF4D-82E2-477E-8E4C-685A2FFBD528}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA6FF4D-82E2-477E-8E4C-685A2FFBD528}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6743,7 +6743,7 @@
   <dimension ref="A1:DB138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="59.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7087,15 +7087,15 @@
       </c>
       <c r="I2" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Today</v>
+        <v>P</v>
       </c>
       <c r="J2" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>P</v>
       </c>
       <c r="K2" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>Today</v>
       </c>
       <c r="L2" s="20" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7905,11 +7905,11 @@
       </c>
       <c r="D4" s="27">
         <f>SUM($D$38:$D$138)</f>
-        <v>30.6</v>
+        <v>12</v>
       </c>
       <c r="E4" s="27">
         <f>(C4-D4)/B1</f>
-        <v>1.5799999999999983</v>
+        <v>20.18</v>
       </c>
       <c r="G4" s="20">
         <f t="shared" ref="G4:AL4" si="3">IF(G36&lt;&gt;"F",SUM(G$38:G$138),"")</f>
@@ -8320,7 +8320,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="28">
         <f ca="1">C4-(E4*(Setup!$B$6-1))</f>
-        <v>27.440000000000005</v>
+        <v>-28.36</v>
       </c>
       <c r="E5" s="27"/>
       <c r="G5" s="29">
@@ -8329,15 +8329,15 @@
       </c>
       <c r="H5" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>30.6</v>
+        <v>12</v>
       </c>
       <c r="I5" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>29.020000000000003</v>
+        <v>-8.18</v>
       </c>
       <c r="J5" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>27.440000000000005</v>
+        <v>-28.36</v>
       </c>
       <c r="K5" s="29" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -8861,11 +8861,11 @@
       </c>
       <c r="D8" s="31">
         <f t="shared" ref="D8:D28" si="10">SUMIF($F$38:$F$138,$B8,$D$38:$D$138)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E8" s="27">
         <f t="shared" ref="E8:E28" si="11">(C8-D8)/B$1</f>
-        <v>-1.17</v>
+        <v>1.33</v>
       </c>
       <c r="G8" s="20">
         <f t="shared" ref="G8:P17" si="12">SUMIF($F$38:$F$138,$B8,G$38:G$138)</f>
@@ -9705,11 +9705,11 @@
       </c>
       <c r="D10" s="31">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E10" s="27">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G10" s="20">
         <f t="shared" si="12"/>
@@ -10971,11 +10971,11 @@
       </c>
       <c r="D13" s="31">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E13" s="27">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G13" s="20">
         <f t="shared" si="12"/>
@@ -11815,11 +11815,11 @@
       </c>
       <c r="D15" s="31">
         <f t="shared" si="10"/>
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="27">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="G15" s="20">
         <f t="shared" si="12"/>
@@ -12237,11 +12237,11 @@
       </c>
       <c r="D16" s="31">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E16" s="27">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16" s="20">
         <f t="shared" si="12"/>
@@ -17840,11 +17840,11 @@
       </c>
       <c r="D31" s="31">
         <f>SUMIF($B$38:$B$138,$B31,$D$38:$D$138)</f>
-        <v>30.6</v>
+        <v>12</v>
       </c>
       <c r="E31" s="27">
         <f>(C31-D31)/B$1</f>
-        <v>1.5799999999999983</v>
+        <v>20.18</v>
       </c>
       <c r="G31" s="20">
         <f t="shared" ref="G31:P33" si="32">SUMIF($B$38:$B$138,$B31,G$38:G$138)</f>
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B35" s="25">
         <f ca="1">TODAY()</f>
-        <v>42855</v>
+        <v>42857</v>
       </c>
       <c r="G35" s="20" t="str">
         <f ca="1">IF(G$37=$B$35,"Today",IF(G$37&lt;$B$35,"P","F"))</f>
@@ -19108,15 +19108,15 @@
       </c>
       <c r="I35" s="20" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>Today</v>
+        <v>P</v>
       </c>
       <c r="J35" s="20" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>F</v>
+        <v>P</v>
       </c>
       <c r="K35" s="20" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>F</v>
+        <v>Today</v>
       </c>
       <c r="L35" s="20" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -20341,7 +20341,7 @@
         <v>0.33</v>
       </c>
       <c r="D38" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="39" t="s">
@@ -20761,7 +20761,7 @@
         <v>0.5</v>
       </c>
       <c r="D39" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="39" t="s">
@@ -21181,7 +21181,7 @@
         <v>0.5</v>
       </c>
       <c r="D40" s="31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="39" t="s">
@@ -22021,8 +22021,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="31">
-        <f t="shared" ref="D41:D69" si="58">DB42</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="39" t="s">
@@ -22033,399 +22032,399 @@
         <v>2</v>
       </c>
       <c r="H42" s="20">
-        <f t="shared" ref="H42:AM42" si="59">G42</f>
+        <f t="shared" ref="H42:AM42" si="58">G42</f>
         <v>2</v>
       </c>
       <c r="I42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="J42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="K42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="L42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="M42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="N42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="O42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="P42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="Q42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="R42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="S42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="T42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="U42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="V42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="W42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="X42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="Y42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="Z42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="AA42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="AB42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="AC42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="AD42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="AE42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="AF42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="AG42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="AH42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="AI42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="AJ42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="AK42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="AL42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="AM42" s="20">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="AN42" s="20">
+        <f t="shared" ref="AN42:BS42" si="59">AM42</f>
+        <v>2</v>
+      </c>
+      <c r="AO42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="J42" s="20">
+      <c r="AP42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="K42" s="20">
+      <c r="AQ42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="L42" s="20">
+      <c r="AR42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="M42" s="20">
+      <c r="AS42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="N42" s="20">
+      <c r="AT42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="O42" s="20">
+      <c r="AU42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="P42" s="20">
+      <c r="AV42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="Q42" s="20">
+      <c r="AW42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="R42" s="20">
+      <c r="AX42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="S42" s="20">
+      <c r="AY42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="T42" s="20">
+      <c r="AZ42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="U42" s="20">
+      <c r="BA42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="V42" s="20">
+      <c r="BB42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="W42" s="20">
+      <c r="BC42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="X42" s="20">
+      <c r="BD42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="Y42" s="20">
+      <c r="BE42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="Z42" s="20">
+      <c r="BF42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="AA42" s="20">
+      <c r="BG42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="AB42" s="20">
+      <c r="BH42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="AC42" s="20">
+      <c r="BI42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="AD42" s="20">
+      <c r="BJ42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="AE42" s="20">
+      <c r="BK42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="AF42" s="20">
+      <c r="BL42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="AG42" s="20">
+      <c r="BM42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="AH42" s="20">
+      <c r="BN42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="AI42" s="20">
+      <c r="BO42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="AJ42" s="20">
+      <c r="BP42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="AK42" s="20">
+      <c r="BQ42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="AL42" s="20">
+      <c r="BR42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="AM42" s="20">
+      <c r="BS42" s="20">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="AN42" s="20">
-        <f t="shared" ref="AN42:BS42" si="60">AM42</f>
-        <v>2</v>
-      </c>
-      <c r="AO42" s="20">
+      <c r="BT42" s="20">
+        <f t="shared" ref="BT42:DB42" si="60">BS42</f>
+        <v>2</v>
+      </c>
+      <c r="BU42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="AP42" s="20">
+      <c r="BV42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="AQ42" s="20">
+      <c r="BW42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="AR42" s="20">
+      <c r="BX42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="AS42" s="20">
+      <c r="BY42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="AT42" s="20">
+      <c r="BZ42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="AU42" s="20">
+      <c r="CA42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="AV42" s="20">
+      <c r="CB42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="AW42" s="20">
+      <c r="CC42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="AX42" s="20">
+      <c r="CD42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="AY42" s="20">
+      <c r="CE42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="AZ42" s="20">
+      <c r="CF42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="BA42" s="20">
+      <c r="CG42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="BB42" s="20">
+      <c r="CH42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="BC42" s="20">
+      <c r="CI42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="BD42" s="20">
+      <c r="CJ42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="BE42" s="20">
+      <c r="CK42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="BF42" s="20">
+      <c r="CL42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="BG42" s="20">
+      <c r="CM42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="BH42" s="20">
+      <c r="CN42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="BI42" s="20">
+      <c r="CO42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="BJ42" s="20">
+      <c r="CP42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="BK42" s="20">
+      <c r="CQ42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="BL42" s="20">
+      <c r="CR42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="BM42" s="20">
+      <c r="CS42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="BN42" s="20">
+      <c r="CT42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="BO42" s="20">
+      <c r="CU42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="BP42" s="20">
+      <c r="CV42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="BQ42" s="20">
+      <c r="CW42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="BR42" s="20">
+      <c r="CX42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="BS42" s="20">
+      <c r="CY42" s="20">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="BT42" s="20">
-        <f t="shared" ref="BT42:DB42" si="61">BS42</f>
-        <v>2</v>
-      </c>
-      <c r="BU42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="BV42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="BW42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="BX42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="BY42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="BZ42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CA42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CB42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CC42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CD42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CE42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CF42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CG42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CH42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CI42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CJ42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CK42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CL42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CM42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CN42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CO42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CP42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CQ42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CR42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CS42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CT42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CU42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CV42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CW42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CX42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="CY42" s="20">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
       <c r="CZ42" s="20">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="DA42" s="20">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="DB42" s="20">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
     </row>
@@ -22442,8 +22441,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="31">
-        <f t="shared" si="58"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="39" t="s">
@@ -22454,399 +22452,399 @@
         <v>2</v>
       </c>
       <c r="H43" s="20">
-        <f t="shared" ref="H43:AM43" si="62">G43</f>
+        <f t="shared" ref="H43:AM43" si="61">G43</f>
         <v>2</v>
       </c>
       <c r="I43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="J43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="K43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="L43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="M43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="N43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="O43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="P43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="Q43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="R43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="S43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="T43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="U43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="V43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="W43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="X43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="Y43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="Z43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AA43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AB43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AC43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AD43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AE43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AF43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AG43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AH43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AI43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AJ43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AK43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AL43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AM43" s="20">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AN43" s="20">
+        <f t="shared" ref="AN43:BS43" si="62">AM43</f>
+        <v>2</v>
+      </c>
+      <c r="AO43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="J43" s="20">
+      <c r="AP43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="K43" s="20">
+      <c r="AQ43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="L43" s="20">
+      <c r="AR43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="M43" s="20">
+      <c r="AS43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="N43" s="20">
+      <c r="AT43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="O43" s="20">
+      <c r="AU43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="P43" s="20">
+      <c r="AV43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="Q43" s="20">
+      <c r="AW43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="R43" s="20">
+      <c r="AX43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="S43" s="20">
+      <c r="AY43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="T43" s="20">
+      <c r="AZ43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="U43" s="20">
+      <c r="BA43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="V43" s="20">
+      <c r="BB43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="W43" s="20">
+      <c r="BC43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="X43" s="20">
+      <c r="BD43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="Y43" s="20">
+      <c r="BE43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="Z43" s="20">
+      <c r="BF43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="AA43" s="20">
+      <c r="BG43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="AB43" s="20">
+      <c r="BH43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="AC43" s="20">
+      <c r="BI43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="AD43" s="20">
+      <c r="BJ43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="AE43" s="20">
+      <c r="BK43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="AF43" s="20">
+      <c r="BL43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="AG43" s="20">
+      <c r="BM43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="AH43" s="20">
+      <c r="BN43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="AI43" s="20">
+      <c r="BO43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="AJ43" s="20">
+      <c r="BP43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="AK43" s="20">
+      <c r="BQ43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="AL43" s="20">
+      <c r="BR43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="AM43" s="20">
+      <c r="BS43" s="20">
         <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="AN43" s="20">
-        <f t="shared" ref="AN43:BS43" si="63">AM43</f>
-        <v>2</v>
-      </c>
-      <c r="AO43" s="20">
+      <c r="BT43" s="20">
+        <f t="shared" ref="BT43:DB43" si="63">BS43</f>
+        <v>2</v>
+      </c>
+      <c r="BU43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="AP43" s="20">
+      <c r="BV43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="AQ43" s="20">
+      <c r="BW43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="AR43" s="20">
+      <c r="BX43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="AS43" s="20">
+      <c r="BY43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="AT43" s="20">
+      <c r="BZ43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="AU43" s="20">
+      <c r="CA43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="AV43" s="20">
+      <c r="CB43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="AW43" s="20">
+      <c r="CC43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="AX43" s="20">
+      <c r="CD43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="AY43" s="20">
+      <c r="CE43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="AZ43" s="20">
+      <c r="CF43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="BA43" s="20">
+      <c r="CG43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="BB43" s="20">
+      <c r="CH43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="BC43" s="20">
+      <c r="CI43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="BD43" s="20">
+      <c r="CJ43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="BE43" s="20">
+      <c r="CK43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="BF43" s="20">
+      <c r="CL43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="BG43" s="20">
+      <c r="CM43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="BH43" s="20">
+      <c r="CN43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="BI43" s="20">
+      <c r="CO43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="BJ43" s="20">
+      <c r="CP43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="BK43" s="20">
+      <c r="CQ43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="BL43" s="20">
+      <c r="CR43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="BM43" s="20">
+      <c r="CS43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="BN43" s="20">
+      <c r="CT43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="BO43" s="20">
+      <c r="CU43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="BP43" s="20">
+      <c r="CV43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="BQ43" s="20">
+      <c r="CW43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="BR43" s="20">
+      <c r="CX43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="BS43" s="20">
+      <c r="CY43" s="20">
         <f t="shared" si="63"/>
         <v>2</v>
       </c>
-      <c r="BT43" s="20">
-        <f t="shared" ref="BT43:DB43" si="64">BS43</f>
-        <v>2</v>
-      </c>
-      <c r="BU43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="BV43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="BW43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="BX43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="BY43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="BZ43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CA43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CB43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CC43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CD43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CE43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CF43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CG43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CH43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CI43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CJ43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CK43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CL43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CM43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CN43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CO43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CP43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CQ43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CR43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CS43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CT43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CU43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CV43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CW43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CX43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="CY43" s="20">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
       <c r="CZ43" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>2</v>
       </c>
       <c r="DA43" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>2</v>
       </c>
       <c r="DB43" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>2</v>
       </c>
     </row>
@@ -22863,8 +22861,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="31">
-        <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="38"/>
       <c r="F44" s="39" t="s">
@@ -22875,399 +22872,399 @@
         <v>1</v>
       </c>
       <c r="H44" s="20">
-        <f t="shared" ref="H44:AM44" si="65">G44</f>
+        <f t="shared" ref="H44:AM44" si="64">G44</f>
         <v>1</v>
       </c>
       <c r="I44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="J44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="K44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="L44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="M44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="N44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="O44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="P44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="Q44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="R44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="S44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="T44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="U44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="V44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="W44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="X44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="Y44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="Z44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="AA44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="AB44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="AC44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="AD44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="AE44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="AF44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="AG44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="AH44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="AI44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="AK44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="AL44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="AM44" s="20">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="AN44" s="20">
+        <f t="shared" ref="AN44:BS44" si="65">AM44</f>
+        <v>1</v>
+      </c>
+      <c r="AO44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="J44" s="20">
+      <c r="AP44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="K44" s="20">
+      <c r="AQ44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="L44" s="20">
+      <c r="AR44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="M44" s="20">
+      <c r="AS44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="N44" s="20">
+      <c r="AT44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="O44" s="20">
+      <c r="AU44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="P44" s="20">
+      <c r="AV44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="Q44" s="20">
+      <c r="AW44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="R44" s="20">
+      <c r="AX44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="S44" s="20">
+      <c r="AY44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="T44" s="20">
+      <c r="AZ44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="U44" s="20">
+      <c r="BA44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="V44" s="20">
+      <c r="BB44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="W44" s="20">
+      <c r="BC44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="X44" s="20">
+      <c r="BD44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="Y44" s="20">
+      <c r="BE44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="Z44" s="20">
+      <c r="BF44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="AA44" s="20">
+      <c r="BG44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="AB44" s="20">
+      <c r="BH44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="AC44" s="20">
+      <c r="BI44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="AD44" s="20">
+      <c r="BJ44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="AE44" s="20">
+      <c r="BK44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="AF44" s="20">
+      <c r="BL44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="AG44" s="20">
+      <c r="BM44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="AH44" s="20">
+      <c r="BN44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="AI44" s="20">
+      <c r="BO44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="AJ44" s="20">
+      <c r="BP44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="AK44" s="20">
+      <c r="BQ44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="AL44" s="20">
+      <c r="BR44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="AM44" s="20">
+      <c r="BS44" s="20">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="AN44" s="20">
-        <f t="shared" ref="AN44:BS44" si="66">AM44</f>
-        <v>1</v>
-      </c>
-      <c r="AO44" s="20">
+      <c r="BT44" s="20">
+        <f t="shared" ref="BT44:DB44" si="66">BS44</f>
+        <v>1</v>
+      </c>
+      <c r="BU44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="AP44" s="20">
+      <c r="BV44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="AQ44" s="20">
+      <c r="BW44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="AR44" s="20">
+      <c r="BX44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="AS44" s="20">
+      <c r="BY44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="AT44" s="20">
+      <c r="BZ44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="AU44" s="20">
+      <c r="CA44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="AV44" s="20">
+      <c r="CB44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="AW44" s="20">
+      <c r="CC44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="AX44" s="20">
+      <c r="CD44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="AY44" s="20">
+      <c r="CE44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="AZ44" s="20">
+      <c r="CF44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BA44" s="20">
+      <c r="CG44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BB44" s="20">
+      <c r="CH44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BC44" s="20">
+      <c r="CI44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BD44" s="20">
+      <c r="CJ44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BE44" s="20">
+      <c r="CK44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BF44" s="20">
+      <c r="CL44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BG44" s="20">
+      <c r="CM44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BH44" s="20">
+      <c r="CN44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BI44" s="20">
+      <c r="CO44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BJ44" s="20">
+      <c r="CP44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BK44" s="20">
+      <c r="CQ44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BL44" s="20">
+      <c r="CR44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BM44" s="20">
+      <c r="CS44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BN44" s="20">
+      <c r="CT44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BO44" s="20">
+      <c r="CU44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BP44" s="20">
+      <c r="CV44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BQ44" s="20">
+      <c r="CW44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BR44" s="20">
+      <c r="CX44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BS44" s="20">
+      <c r="CY44" s="20">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BT44" s="20">
-        <f t="shared" ref="BT44:DB44" si="67">BS44</f>
-        <v>1</v>
-      </c>
-      <c r="BU44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="BV44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="BW44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="BX44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="BY44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="BZ44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CA44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CB44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CC44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CD44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CE44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CF44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CG44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CH44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CI44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CJ44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CK44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CL44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CM44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CN44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CO44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CP44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CQ44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CR44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CS44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CT44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CU44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CV44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CW44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CX44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="CY44" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
       <c r="CZ44" s="20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="DA44" s="20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="DB44" s="20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
     </row>
@@ -23284,7 +23281,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="31">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="D42:D69" si="67">DB45</f>
         <v>2</v>
       </c>
       <c r="E45" s="38"/>
@@ -23705,7 +23702,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="31">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="E46" s="38"/>
@@ -24126,7 +24123,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="31">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="E47" s="38"/>
@@ -24547,7 +24544,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="31">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="E48" s="38"/>
@@ -24968,7 +24965,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="31">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="E49" s="38"/>
@@ -25389,7 +25386,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="31">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="E50" s="38"/>
@@ -25810,7 +25807,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="31">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="E51" s="38"/>
@@ -26231,8 +26228,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="31">
-        <f t="shared" si="58"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="39" t="s">
@@ -26652,8 +26648,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="31">
-        <f t="shared" si="58"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="39" t="s">
@@ -27073,8 +27068,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="31">
-        <f t="shared" si="58"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="39" t="s">
@@ -29174,8 +29168,7 @@
         <v>0.1</v>
       </c>
       <c r="D59" s="31">
-        <f t="shared" si="58"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="39" t="s">
@@ -29595,7 +29588,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="31">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="E60" s="38"/>
@@ -30016,7 +30009,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="31">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="E61" s="38"/>
@@ -30437,8 +30430,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="31">
-        <f t="shared" si="58"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="39" t="s">
@@ -30858,8 +30850,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="31">
-        <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="39" t="s">
@@ -31279,8 +31270,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="31">
-        <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="39" t="s">
@@ -31700,8 +31690,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="31">
-        <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="39" t="s">
@@ -32119,7 +32108,7 @@
         <v/>
       </c>
       <c r="D66" s="31" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="E66" s="38"/>
@@ -32536,7 +32525,7 @@
         <v/>
       </c>
       <c r="D67" s="31" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="E67" s="38"/>
@@ -32953,7 +32942,7 @@
         <v/>
       </c>
       <c r="D68" s="31" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="E68" s="38"/>
@@ -33370,7 +33359,7 @@
         <v/>
       </c>
       <c r="D69" s="31" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="E69" s="38"/>
